--- a/resources/Lecture 19 - Q4.xlsx
+++ b/resources/Lecture 19 - Q4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4070" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CFF777D-68D5-4A2C-ADB2-B9F1FAB6BCCE}"/>
+  <xr:revisionPtr revIDLastSave="4140" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B046D9C8-B1CE-4354-A5C4-719ECCA04BC8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,23 +456,23 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -491,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -502,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -527,7 +527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -568,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -579,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -593,12 +593,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -631,7 +631,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -642,7 +642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -664,7 +664,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -675,7 +675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -686,7 +686,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -708,26 +708,26 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1">
         <f>C3</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,148 +735,149 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>C3</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B31" s="1">
         <f>C4 + C5</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>C4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B32" s="1">
         <f>C6 + C7</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>C5 + C6 + C11</f>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B33" s="1">
         <f>C8</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>C8</f>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B34" s="1">
         <f>C9 + C10</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>C7 + C9</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B35" s="1">
         <f>C11 + C12</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>C10 + C12</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B36" s="1">
         <f>C3</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f>C4</f>
-        <v>700</v>
+        <f t="shared" ref="A37:A43" si="0">C4</f>
+        <v>600</v>
       </c>
       <c r="B37" s="1">
         <f>C16</f>
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ref="B38:B43" si="0">C17</f>
+        <f t="shared" ref="B38:B43" si="1">C17</f>
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f>C6</f>
-        <v>100</v>
-      </c>
-      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f>C7</f>
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="B40" s="1">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <f>C8</f>
+        <v>700</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="B41" s="1">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <f>C10</f>
-        <v>800</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>0</v>
+        <f>C11</f>
+        <v>300</v>
       </c>
       <c r="B44" s="1">
         <f>C23</f>
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f t="shared" ref="A45" si="1">C12</f>
+        <f t="shared" ref="A45" si="2">C12</f>
         <v>200</v>
       </c>
       <c r="B45" s="1">
